--- a/Resources/StreamLine API Automator Resources/skeletons/test.xlsx
+++ b/Resources/StreamLine API Automator Resources/skeletons/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\StreamLineQA-Automation-Test\Resources\StreamLine API Automator Resources\skeletons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B04168-C23C-4F9C-8A6C-AF8BDCA9D90B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4015D0BE-0339-4F98-BDD4-3F3B8A13AE65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -539,7 +539,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -576,8 +576,8 @@
     <dataValidation type="list" allowBlank="1" sqref="C2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Response,Body,Status Code"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2" xr:uid="{00000000-0002-0000-0100-000001000000}">
-      <formula1>"equals,contains,has size,has item,is empty,greater than,less than,greater than or equal to,less than or equal to,does not equal,does not contain,does not have item,is not empty,"</formula1>
+    <dataValidation type="list" allowBlank="1" sqref="E2" xr:uid="{105BA7FE-29B3-450C-A4FF-263DAB0F5D8D}">
+      <formula1>"equals,equals integer,equals decimal,contains,has size,has item,is empty,greater than,less than,greater than or equal to,less than or equal to,does not equal,does not equal integer,does not equal decimal,does not contain,does not have item,is not empty,"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/StreamLine API Automator Resources/skeletons/test.xlsx
+++ b/Resources/StreamLine API Automator Resources/skeletons/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\StreamLineQA-Automation-Test\Resources\StreamLine API Automator Resources\skeletons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4015D0BE-0339-4F98-BDD4-3F3B8A13AE65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B42109A-446C-4A4B-9646-6F9E1BAD7866}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requests" sheetId="1" r:id="rId1"/>
@@ -475,9 +475,9 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -537,9 +537,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
